--- a/data/IEEE9/ieee18_2/ieee18_2_2030.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E3A3D-20FA-493E-A5D3-795C3C4AD1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA302052-CBD9-4A55-814C-2A564BB45A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3645" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>7.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0976501782938649E-5</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6957175881016376E-2</v>
+        <v>4.1121151511464706E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32911444893864367</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>2.7801193237576243</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2141155056533173</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392579289531956</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1890985045313645</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88608822384881769</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47068228334950574</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10605462923582906</v>
+        <v>0.27607004002110141</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7510413810611936E-4</v>
+        <v>1.7756645299145325E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2256979991216461E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1028618451129191E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5443309619236123</v>
+        <v>2.905177057084023</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3343782849264372</v>
+        <v>2.6965561174555082</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3097019328862598</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3126986720516987</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>2.3209567916884448</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0869597206539012</v>
+        <v>2.1530163697567657</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93685747669187891</v>
+        <v>1.8920847078286966</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78342757838468391</v>
+        <v>1.6658144298284858</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83160431248747735</v>
+        <v>1.598617998762335</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70043955164202099</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76119144520322091</v>
+        <v>1.449888467053754</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73683442613324135</v>
+        <v>1.4736688522664827</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68315715650512843</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67313913037125028</v>
+        <v>1.3062897975521293</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8646304203233236</v>
+        <v>1.7628387210475529</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90637345795416868</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.015589759689016</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1349889184521995</v>
+        <v>2.1186459811107721</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99695456775005464</v>
+        <v>1.9939091355001093</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0200750836989005</v>
+        <v>2.2084099750182382</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1505420352905973</v>
+        <v>2.2125808370973026</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0655926182456794</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2538537140086619</v>
+        <v>2.6070225736813764</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,19 +13813,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13833,35 +13833,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13930,39 +13930,39 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7260928961748631E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.931120660754014E-6</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7805034675067194E-2</v>
+        <v>4.1545080908490115E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33950753679986401</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86398946716443847</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0780054520692828</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2899977247566496</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2596980519856791</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.166009213181241</v>
+        <v>2.8572998045777931</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92262794441990303</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48554593440264804</v>
+        <v>1.3005694671499501</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10496128254267618</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0323347719387431E-4</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1028618451129191E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4984597452328119</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621778325290712</v>
+        <v>2.7799547602634105</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>2.67397477964278</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>2.2735903265519459</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99289589867423644</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82466060882598313</v>
+        <v>1.6658144298284858</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76701368627485766</v>
+        <v>1.6309133118686447</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74467783911414864</v>
+        <v>1.4598634865802125</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72494423352687698</v>
+        <v>1.5078840057359042</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74405829305611626</v>
+        <v>1.3725347153462339</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64257356304937807</v>
+        <v>1.3798421774955067</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63981541104594086</v>
+        <v>1.2796308220918817</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81426359972196483</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94374968302444384</v>
+        <v>1.8501231409786123</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96676332893473615</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.091751245368306</v>
+        <v>2.2483590003624521</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0791776248840799</v>
+        <v>2.1377994854846532</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1042049875091191</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1062904185486513</v>
+        <v>2.2789582622102214</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0784425143607592</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0985490909749271</v>
+        <v>2.1970981819498543</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>2.5821937872653633</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,11 +14386,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14398,39 +14398,39 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,15 +14487,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14503,27 +14503,27 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14531,11 +14531,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14604,11 +14604,11 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14620,23 +14620,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7624316939890707E-5</v>
+        <v>4.769467213114754E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0767425558501721E-5</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.712674763982654E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35682934990189791</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83857801224783735</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1801322843705835</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3026447612738716</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3790378674369541</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1313752761560556</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88608822384881769</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48059138405160062</v>
+        <v>1.1767057083737644</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11152136270159345</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.962011424219356E-4</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2869828990777284E-4</v>
+        <v>3.0029600978480331E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.361433665538996E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5902021786144127</v>
+        <v>3.1498235461016248</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3760776063303881</v>
+        <v>2.8077543078660447</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3097019328862598</v>
+        <v>2.7558311504481714</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3263726165522371</v>
+        <v>2.7894846781098597</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2196864772648461</v>
+        <v>2.2735903265519459</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.013798970225273</v>
+        <v>2.0694040835526191</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91848772224694009</v>
+        <v>1.8002359356040025</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85764703317902247</v>
+        <v>1.6328280054754465</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80738282765774494</v>
+        <v>1.6309133118686447</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205088702616996</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71769479119160817</v>
+        <v>1.4933851210653668</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75128215997899117</v>
+        <v>1.4158779168834834</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68315715650512843</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69979810583149782</v>
+        <v>1.3995962116629956</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83944701002264421</v>
+        <v>1.7292608406466472</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89702940168659995</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95699804278388034</v>
+        <v>1.9921183747746078</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0485135722844128</v>
+        <v>2.2267401638205051</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0277882141753141</v>
+        <v>2.0350206640671216</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305913216751779</v>
+        <v>2.0611826433503557</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0841646101776783</v>
+        <v>2.1019517952424369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1919627790303129</v>
+        <v>2.1795890816554291</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.087563600065178</v>
+        <v>2.1970981819498543</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>2.4580498551852976</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,15 +15060,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15076,19 +15076,19 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15096,19 +15096,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,15 +15161,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43622997606831942</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15177,39 +15177,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.59454925226568223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.284438524590164E-5</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3040084118131113E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2198886444645145E-2</v>
+        <v>5.549721611161286E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42842557133717324</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.046333252501493</v>
+        <v>2.6697678349909229</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4824939084297701</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.646934715864425</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7180190687573631</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5336059074910167</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1481847739665871</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62096926866045088</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13748238813203131</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6927085259875636E-4</v>
+        <v>2.1292745631838225E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5338759440431562E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1115361471377785</v>
+        <v>2.1777034719434027</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97757799130221756</v>
+        <v>2.0150076963576322</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0131227362983837</v>
+        <v>2.0053563440132955</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0162833295268849</v>
+        <v>1.9118201248525559</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91476485794863471</v>
+        <v>1.7229551693401468</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7612256071469139</v>
+        <v>1.5065923474782672</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>1.4268290590549317</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292026403754855</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60438420273330917</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57193865122361309</v>
+        <v>1.1220891633529932</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5324927780812696</v>
+        <v>1.0649855561625392</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55178165503276777</v>
+        <v>1.0285638618086543</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50457421455144735</v>
+        <v>0.98916529189293634</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48107547868536277</v>
+        <v>0.96215095737072553</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>1.2063527944256922</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73235334268891561</v>
+        <v>1.3531099855395203</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69510278069147802</v>
+        <v>1.3761630809649468</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75340437736028165</v>
+        <v>1.6495590577993537</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74689590533458272</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78728603852334111</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88167257195709225</v>
+        <v>1.728769748935475</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8733342884779387</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>1.6954593641261104</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94093319756227811</v>
+        <v>1.9563957573077071</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26691,31 +26691,31 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26727,15 +26727,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,35 +26788,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26824,19 +26824,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,35 +26889,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26925,19 +26925,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3767390710382512E-5</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2644930053945321E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0084706783250365E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45465570835781655</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0571201932489309</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5260966704424104</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6789140307355788</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6001157993328381</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746210648952083</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1252210784872554</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63338865403365996</v>
+        <v>1.5524231716511272</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13470496614956604</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7805136626137011E-4</v>
+        <v>2.1512258473403568E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4436479473347352E-4</v>
+        <v>3.6467148669653464E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9500077717838531E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0775095303886628</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.017479133804349</v>
+        <v>1.9551559826044351</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0131227362983837</v>
+        <v>2.1306911155141264</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97603448479314692</v>
+        <v>2.0124422366869013</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89700243352244757</v>
+        <v>1.8117672914710823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83259050781693711</v>
+        <v>1.5541689479249494</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74195111070856457</v>
+        <v>1.4981705120076785</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67212380121512338</v>
+        <v>1.3314452443118636</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58068286144964998</v>
+        <v>1.2443204173921072</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55015051212938026</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58241397602638867</v>
+        <v>1.1204535538793383</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51428193090432717</v>
+        <v>1.1035633100655355</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51652314553586332</v>
+        <v>1.0026625766284405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>1.2685359281589754</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66260540528997125</v>
+        <v>1.3531099855395203</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71616650131849258</v>
+        <v>1.4323330026369852</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78512666693334621</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7695291145871459</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80303175929380799</v>
+        <v>1.590317797817149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89031642070176975</v>
+        <v>1.6941943539567657</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83134706307034545</v>
+        <v>1.6291043458146162</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81480814101206267</v>
+        <v>1.5637731999221405</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90366851647070268</v>
+        <v>1.9191310762161315</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,23 +27442,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27466,19 +27466,19 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27486,11 +27486,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.22295616467546772</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,11 +27644,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27656,43 +27656,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0532218615708147E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.284438524590164E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3171802139526378E-5</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.156463254622671E-2</v>
+        <v>5.3911581365566771E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41968219233029214</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1110548969861214</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4243568924129162</v>
+        <v>3.4882209610112236</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5989657435576941</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6674890961468525</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893672755441603</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1252210784872554</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60234019060063737</v>
+        <v>1.5213747082181044</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14442594308819451</v>
+        <v>0.35064952528624149</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6049033893614271E-4</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188379445917527E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9108987839444087E-5</v>
+        <v>9.5817020206638006E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0775095303886628</v>
+        <v>2.2911255277737883</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99752856255328326</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.086234686340535</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>2.072815503787508</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92364607016172828</v>
+        <v>1.7051927449139597</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80880220759359611</v>
+        <v>1.5858866815560706</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6777438030510925</v>
+        <v>1.4410973496454813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64011790591916518</v>
+        <v>1.2418287374831802</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58660819677056475</v>
+        <v>1.1258137109738111</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57193865122361309</v>
+        <v>1.1329832329001097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57132037648302891</v>
+        <v>1.1315471534226982</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51428193090432717</v>
+        <v>1.071420689384015</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50457421455144735</v>
+        <v>1.0091484291028947</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>0.97227886218515425</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60939471058617434</v>
+        <v>1.2934091816522886</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69050458024954908</v>
+        <v>1.394958747978887</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72318774152749743</v>
+        <v>1.4744604438910143</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80098781171987854</v>
+        <v>1.6019756234397571</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71671829299783196</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74792173659717409</v>
+        <v>1.590317797817149</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83845332823370533</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81455217290730808</v>
+        <v>1.7298736867928401</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85596006732580321</v>
+        <v>1.6296162820241253</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93161702728938423</v>
+        <v>1.9563957573077071</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,19 +28116,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0.76304833522120519</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28136,31 +28136,31 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2146465580545766E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.8949497119868334E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0993734239252833E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,47 +28318,47 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53934703737190359</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29496040261371415</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2030.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA302052-CBD9-4A55-814C-2A564BB45A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1B5B3-3240-4A63-ADAB-AA144E34DCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="3645" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404366E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.7441254457346622E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464706E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83144702889762612</v>
+        <v>0.84010793544864304</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0117401808975894</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.9503307109264587</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0669063554263483</v>
+        <v>3.1301415380124586</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.3481448223829888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3522445117636144</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27607004002110141</v>
+        <v>0.26786993982245483</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-3</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,75 +13583,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.058081112720024</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6965561174555082</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.592118408837389</v>
+        <v>2.8376875212535624</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6800931221055517</v>
+        <v>2.8441804561120145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3209567916884448</v>
+        <v>2.344640024256694</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1530163697567657</v>
+        <v>2.1321132982057289</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8920847078286966</v>
+        <v>1.7634964267141249</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6658144298284858</v>
+        <v>1.5668551567693678</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.598617998762335</v>
+        <v>1.5501750291028702</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>1.4598634865802125</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.449888467053754</v>
+        <v>1.3918929283716039</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4736688522664827</v>
+        <v>1.430325650729233</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3062897975521293</v>
+        <v>1.2929603098220055</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7628387210475529</v>
+        <v>1.6285271994439297</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8501231409786123</v>
+        <v>1.86881125351375</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>1.9725878024728962</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>2.269977836904399</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13659,23 +13659,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2084099750182382</v>
+        <v>2.0822151193029104</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2125808370973026</v>
+        <v>2.3232098789521678</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3839255580606258</v>
+        <v>2.3158133992588938</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3069530910473475</v>
+        <v>2.0872432728523616</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6070225736813764</v>
+        <v>2.5325362144333368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,15 +13712,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13728,39 +13728,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,15 +13813,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.7329455787234344E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13829,39 +13829,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13922,23 +13922,23 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13946,23 +13946,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,27 +14184,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86609065510169392</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7517507592294854</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.1617591293055138</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14212,27 +14212,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1923832342651157</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3005694671499501</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-3</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919505E-4</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,67 +14257,67 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>2.9663386793384232</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799547602634105</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.67397477964278</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8441804561120145</v>
+        <v>2.7074410111066287</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2735903265519459</v>
+        <v>2.3683232568249437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.027597940450546</v>
+        <v>2.1948225128588388</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.8737149533837578</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6658144298284858</v>
+        <v>1.6163347932989269</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309133118686447</v>
+        <v>1.5340273725497153</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4598634865802125</v>
+        <v>1.5041017740523399</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5078840057359042</v>
+        <v>1.4353895823832163</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3725347153462339</v>
+        <v>1.430325650729233</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3798421774955067</v>
+        <v>1.3933700419807569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2796308220918817</v>
+        <v>1.3329487730123768</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8501231409786123</v>
+        <v>1.7940588033731999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14325,31 +14325,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.1618836541946655</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1377994854846532</v>
+        <v>2.1583552497681597</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9980852154926918</v>
+        <v>2.1873774990656836</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2789582622102214</v>
+        <v>2.2347066454682754</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2022931345893397</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1970981819498543</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5821937872653633</v>
+        <v>2.3587347095212454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62602830760249173</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47958383249549419</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5352701837798298E-5</v>
+        <v>1.6160738776629788E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,23 +14588,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.169753768399932</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.60073423456804753</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14612,23 +14612,23 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6854028043949602E-2</v>
+        <v>5.5214008004220286E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6160738776629788E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.769467213114754E-5</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.5611837493523512E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,39 +14858,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86609065510169392</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9503307109264587</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0352887641332931</v>
+        <v>3.1301415380124586</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2155450274371282</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1923832342651157</v>
+        <v>2.2837325356928293</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1767057083737644</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14898,15 +14898,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339203E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480331E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548597E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1498235461016248</v>
+        <v>3.2109851683560251</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.8911529506739471</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7894846781098597</v>
+        <v>2.5980494551023203</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2735903265519459</v>
+        <v>2.4630561870979415</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0694040835526191</v>
+        <v>2.1948225128588388</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.7818661811590637</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6328280054754465</v>
+        <v>1.6988008541815254</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6309133118686447</v>
+        <v>1.6147656553154899</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4893556782282973</v>
+        <v>1.4598634865802125</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4933851210653668</v>
+        <v>1.420890697712679</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4158779168834834</v>
+        <v>1.4881165861122325</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.2851471260987561</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3995962116629956</v>
+        <v>1.3729372362027481</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7292608406466472</v>
+        <v>1.6621050798448356</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.9435637036542999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9921183747746078</v>
+        <v>1.9530572301711844</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2267401638205051</v>
+        <v>2.0537894714849321</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>2.0966879569176409</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0611826433503557</v>
+        <v>2.1873774990656836</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1019517952424369</v>
+        <v>2.2789582622102214</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1795890816554291</v>
+        <v>2.2931093463249828</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1970981819498543</v>
+        <v>2.3069530910473475</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4580498551852976</v>
+        <v>2.383563495937258</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,31 +15060,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15092,15 +15092,15 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24277296720132402</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,31 +15161,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15193,23 +15193,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,31 +15262,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15294,7 +15294,7 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15302,15 +15302,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.6919757552678404E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453551E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.1612325134863302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,43 +26485,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.549721611161286E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1366392708945414</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6697678349909229</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0773626460721202</v>
+        <v>3.9174660717163503</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.126614429858372</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6128216089932601</v>
+        <v>3.6865526622380207</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5058504765015934</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3367624153739151</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26529,7 +26529,7 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.6091198683368378E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,71 +26558,71 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1777034719434027</v>
+        <v>2.3364943501059425</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0150076963576322</v>
+        <v>1.9352054113533694</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0053563440132955</v>
+        <v>2.1933585012645422</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9118201248525559</v>
+        <v>2.0325666590537699</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229551693401468</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5065923474782672</v>
+        <v>1.6176044151871922</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4268290590549317</v>
+        <v>1.3840241872832837</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.267433453719947</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2443204173921072</v>
+        <v>1.2206190761084481</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1220891633529932</v>
+        <v>1.0894069547116441</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0649855561625392</v>
+        <v>1.1537343525094177</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0285638618086543</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98916529189293634</v>
+        <v>1.0491147035228112</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96215095737072553</v>
+        <v>1.0229183862572979</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2063527944256922</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3531099855395203</v>
+        <v>1.4507570978980424</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>1.3621206005469368</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26630,23 +26630,23 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5843246476794182</v>
+        <v>1.4485253921640393</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5273349147352819</v>
+        <v>1.606063518587616</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.728769748935475</v>
+        <v>1.6596189589780561</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>1.6123094556515791</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6954593641261104</v>
+        <v>1.6460770525496216</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.80847956176817082</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,7 +26764,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1652943989071037E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,23 +26788,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26812,31 +26812,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,39 +26889,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655737E-5</v>
+        <v>5.9995355191256829E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.1612325134863302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,31 +27240,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.549721611161286E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.561898427516542</v>
+        <v>2.6428004831223273</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7975436409495233</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0845061193496139</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6496871356156406</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32981886041775188</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27284,11 +27284,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653464E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.483929551065191E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,15 +27313,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3364943501059425</v>
+        <v>2.223072294275557</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9551559826044351</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>2.0262454725967673</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27329,19 +27329,19 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8117672914710823</v>
+        <v>1.7584800181925211</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5541689479249494</v>
+        <v>1.6334632820027528</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4981705120076785</v>
+        <v>1.3697558966927346</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3314452443118636</v>
+        <v>1.2546310956015636</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27349,11 +27349,11 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1204535538793383</v>
+        <v>1.0760791557058991</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27361,7 +27361,7 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0391231349178323</v>
+        <v>0.94919901747301971</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27369,31 +27369,31 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>1.2063527944256922</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3531099855395203</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4323330026369852</v>
+        <v>1.404248041800966</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5861144786532246</v>
+        <v>1.665420202585886</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5843246476794182</v>
+        <v>1.508880616837541</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.590317797817149</v>
+        <v>1.6533006808990165</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6941943539567657</v>
+        <v>1.7114820514461202</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27405,7 +27405,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9191310762161315</v>
+        <v>1.7887046923956176</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27450,47 +27450,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80847956176817082</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,15 +27543,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27559,39 +27559,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,31 +27644,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27676,23 +27676,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>5.7110963114754101E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>3.1612325134863302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,19 +27914,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566771E-2</v>
+        <v>5.3383036450218087E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1366392708945414</v>
+        <v>1.0710639283429331</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4882209610112236</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27934,11 +27934,11 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.168722740367131</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6128216089932601</v>
+        <v>3.8708802953499215</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27946,23 +27946,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5213747082181044</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35064952528624149</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795624E-3</v>
+        <v>2.1292745631838225E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638006E-5</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>2.1550190607773256</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>2.0349582676086979</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0262454725967673</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>2.1130643485212461</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7051927449139597</v>
+        <v>1.7940048670448951</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5858866815560706</v>
+        <v>1.6017455483716314</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4410973496454813</v>
+        <v>1.398292477873833</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2418287374831802</v>
+        <v>1.2930381699567137</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1258137109738111</v>
+        <v>1.2324697467502774</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>1.0349366069760619</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315471534226982</v>
+        <v>1.0649855561625392</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>1.0607064824901749</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0091484291028947</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97227886218515425</v>
+        <v>1.0634300055150128</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2934091816522886</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4368075104182534</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4744604438910143</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.4636141983324147</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.590317797817149</v>
+        <v>1.606063518587616</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.6769066564674107</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7298736867928401</v>
+        <v>1.6626941261406909</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6296162820241253</v>
+        <v>1.5802339704476367</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9563957573077071</v>
+        <v>1.9191310762161315</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,43 +28116,43 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.75205674309655623</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.59131515859279238</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28160,11 +28160,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59131515859279238</v>
+        <v>0.56835146311346063</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2030.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB00B1CF-6634-4780-96D4-430170AD9802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF51E9E4-81E6-4559-AE34-8B2B082BD4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="7860" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8902,12 +8902,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1.1046221254112047</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>1.6288946267774416</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8992,9 +8992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0.48950409919347732</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-1.2728306565738845</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-0.97127229759901557</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>-0.86618565965316541</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>-0.66778448213040398</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.34731243756148006</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>-0.79647183537418409</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-0.95588484914699168</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9905,7 +9905,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9931,7 +9931,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9957,7 +9957,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9983,7 +9983,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10009,7 +10009,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10035,7 +10035,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10074,9 +10074,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.48470503939746284</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-1.26022837284543</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>-0.99109418122348536</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>-0.88350937284622877</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>-0.67446232695170816</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.34731243756148006</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-0.80435769513036415</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-0.96534905557418971</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10987,7 +10987,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11013,7 +11013,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11039,7 +11039,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11065,7 +11065,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11091,7 +11091,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11117,7 +11117,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11156,9 +11156,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.32184351593719412</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.26820292994766171</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.2145623439581294</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -12069,7 +12069,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -12095,7 +12095,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -12121,7 +12121,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -12147,7 +12147,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -12199,7 +12199,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -12238,9 +12238,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0.93191016271489568</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0.77659180226241298</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>0.62127344180993038</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13151,7 +13151,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13177,7 +13177,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13203,7 +13203,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13229,7 +13229,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13255,7 +13255,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13320,9 +13320,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114749E-5</v>
+        <v>4.5423497267759557E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,27 +13510,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2816869099566349E-2</v>
+        <v>4.1969010305515531E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.857429748550677</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2023260927720982</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.1617591293055138</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.2818449249100592</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2152205596220442</v>
+        <v>2.2837325356928293</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13546,7 +13546,7 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13554,11 +13554,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>8.4843878577306394E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13577,41 +13577,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0275003015928235</v>
+        <v>2.9357578682112226</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8077543078660447</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>2.592118408837389</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7347889001077057</v>
+        <v>2.6253973441033973</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2735903265519459</v>
+        <v>2.3920064893931934</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1112102266546926</v>
+        <v>2.1321132982057289</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7818661811590637</v>
+        <v>1.7451266722691861</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7317872785345645</v>
+        <v>1.6988008541815254</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13619,11 +13619,11 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451173907561699</v>
+        <v>1.5335939657004252</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5223828904064418</v>
+        <v>1.4063918130421413</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13631,35 +13631,35 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>1.3663143130102569</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3329487730123768</v>
+        <v>1.3062897975521293</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>1.7628387210475529</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>1.9622518161894376</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.031179519378032</v>
+        <v>1.8554043686626251</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0970271445688256</v>
+        <v>2.2483590003624521</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1377994854846532</v>
+        <v>2.0761321926341343</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1663450231131289</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13667,18 +13667,18 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2931093463249828</v>
+        <v>2.3839255580606258</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2190691637693529</v>
+        <v>2.1751272001303561</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.5821937872653633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,51 +13712,51 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54467643894026918</v>
+        <v>0.59006614218529174</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59454925226568223</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,35 +13914,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65764589889554681</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13950,19 +13950,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13994,9 +13994,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591765E-2</v>
+        <v>4.239293970254094E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14196,31 +14196,31 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2155450274371282</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>2.8572998045777931</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014784601290016</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26240320635669045</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3227804699643408E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14251,41 +14251,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>3.2109851683560251</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7521552126607762</v>
+        <v>2.8633534030713133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>2.7285456935130408</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6800931221055517</v>
+        <v>2.6527452331044743</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.344640024256694</v>
+        <v>2.4630561870979415</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>1.8369754444938802</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5833483689458874</v>
+        <v>1.6163347932989269</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14293,47 +14293,47 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4451173907561699</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4063918130421413</v>
+        <v>1.420890697712679</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>1.4881165861122325</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2851471260987561</v>
+        <v>1.3527864485250065</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.266301334361758</v>
+        <v>1.3462782607425006</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7124719004461941</v>
+        <v>1.6453161396443827</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>1.9435637036542999</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8944655132660486</v>
+        <v>1.9921183747746078</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0537894714849321</v>
+        <v>2.269977836904399</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.117243721201147</v>
+        <v>2.0761321926341343</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0822151193029104</v>
+        <v>2.1663450231131289</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,18 +14341,18 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3158133992588938</v>
+        <v>2.2022931345893397</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1092142546718602</v>
+        <v>2.1970981819498543</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4580498551852976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.5077074280173237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,15 +14386,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,35 +14406,35 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68288894397118394</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.57145996091555862</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.6854028043949602E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,31 +14487,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14519,23 +14519,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4480874316939885E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,43 +14600,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.47501636742410852</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>6.1284899956082304E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14668,9 +14668,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.5423497267759557E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90939518785677864</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0540926057585915</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.921962146398319</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3481448223829888</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7707149620148295</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2881830912723315</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.28153677348686579</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382383E-4</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14925,37 +14925,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9357578682112226</v>
+        <v>3.1192427349744243</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6409570222502401</v>
+        <v>2.9189524982765813</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.864972978188693</v>
+        <v>2.67397477964278</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>2.6800931221055517</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3683232568249437</v>
+        <v>2.2735903265519459</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>2.027597940450546</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>1.9104544622736355</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14963,23 +14963,23 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5501750291028702</v>
+        <v>1.6793562815281096</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4156251991080846</v>
+        <v>1.4893556782282973</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4933851210653668</v>
+        <v>1.4353895823832163</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4447733845749831</v>
+        <v>1.3869824491919835</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3933700419807569</v>
+        <v>1.3392585840397564</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14987,27 +14987,27 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6621050798448356</v>
+        <v>1.6956829602457413</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.86881125351375</v>
+        <v>1.8127469159083374</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0507100916797434</v>
+        <v>1.9725878024728962</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2483590003624521</v>
+        <v>2.0970271445688256</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0555764283506281</v>
+        <v>1.9733533712166029</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1663450231131289</v>
+        <v>1.9980852154926918</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15015,18 +15015,18 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3612215051267151</v>
+        <v>2.2249971875232504</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3069530910473475</v>
+        <v>2.1311852364913588</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5821937872653633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2.4828786416013107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,11 +15060,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15072,43 +15072,43 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57145996091555862</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.43622997606831942</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43390918178163751</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24525024237684775</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.3027314617914531E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25763661825446632</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15342,9 +15342,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15896,9 +15896,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16450,9 +16450,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17004,9 +17004,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17085,9 +17085,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17639,9 +17639,9 @@
       <selection activeCell="B2" sqref="B2:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>5.1448860843884967</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>4.1342178813683876</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>2.8400378342884913</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1.7439938054916804</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.6787501546979215</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2.4849858672660563</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>2.1347394441917213</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1.6139312050176382</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18552,7 +18552,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -18578,7 +18578,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -18604,7 +18604,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -18630,7 +18630,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -18721,9 +18721,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>5.2419130092182193</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>4.0564258544560587</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>2.866481280345361</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.7599660443320855</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>2.6281105500329862</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2.4849858672660563</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>2.0949800537369101</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>1.6432744306889677</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -19634,7 +19634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19660,7 +19660,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19686,7 +19686,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19738,7 +19738,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -19764,7 +19764,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -19803,9 +19803,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>5.0963726219736341</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>4.1731138948245512</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>2.7871509421747525</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1.7280215666512748</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>2.6534303523654534</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>2.5317501861823546</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>2.0949800537369101</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.5992595921819734</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -20716,7 +20716,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20742,7 +20742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20768,7 +20768,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20794,7 +20794,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20820,7 +20820,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -20846,7 +20846,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -20885,9 +20885,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.77397684491899188</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>6.1367895856178037E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>-0.62865994490314148</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>-0.76668264467099734</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>-0.1333629151411089</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.44271183619995935</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>-0.55111038648232935</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-0.95246933587875793</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -21798,7 +21798,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21824,7 +21824,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -21850,7 +21850,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -21876,7 +21876,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -21902,7 +21902,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -21928,7 +21928,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -21967,9 +21967,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.78171661336818177</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>6.1981574814739815E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>-0.64123314380120433</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-0.78201629756441726</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>-0.1333629151411089</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0.45156607292395856</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>-0.55662149034715258</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>-0.96199402923754551</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22906,7 +22906,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -22932,7 +22932,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22958,7 +22958,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22984,7 +22984,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23010,7 +23010,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -23049,9 +23049,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0.75849730802061199</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>6.0754216897616259E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>-0.6349465443521729</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>-0.75901581822428732</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>-0.13469654429252001</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>0.43828471783795975</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>-0.56213259421197592</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>-0.97151872259633321</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -23962,7 +23962,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23988,7 +23988,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -24040,7 +24040,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -24066,7 +24066,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -24092,7 +24092,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -24131,9 +24131,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>0.32184351593719412</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0.26820292994766171</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0.2145623439581294</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>0.16092175796859706</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -25044,7 +25044,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25070,7 +25070,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -25096,7 +25096,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -25122,7 +25122,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -25174,7 +25174,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -25213,9 +25213,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>0.93191016271489568</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0.77659180226241298</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0.62127344180993038</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>0.46595508135744784</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -26126,7 +26126,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26152,7 +26152,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -26178,7 +26178,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26204,7 +26204,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -26230,7 +26230,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26256,7 +26256,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -26295,9 +26295,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-5</v>
+        <v>3.3917390509280424E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0740311873474608E-2</v>
+        <v>5.12688567888233E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1038515996187372</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8375177845384654</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5524231716511272</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35412130276432308</v>
+        <v>0.35064952528624149</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707538E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.9098798573649078E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.483929551065191E-5</v>
+        <v>9.6794744902624103E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26552,53 +26552,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2457567054416341</v>
+        <v>2.1550190607773256</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.094809981361895</v>
+        <v>1.895304268851238</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0889128583471828</v>
+        <v>1.9844672154298235</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0929399261543771</v>
+        <v>1.9520689695862938</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7407175937663342</v>
+        <v>1.8472921403234566</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.57002781474051</v>
+        <v>1.5541689479249494</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4268290590549317</v>
+        <v>1.4410973496454813</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>1.2290263793647971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2324697467502774</v>
+        <v>1.2206190761084481</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0349366069760619</v>
+        <v>1.111195093805877</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315471534226982</v>
+        <v>1.1648279520527773</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26606,43 +26606,43 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0191399977078739</v>
+        <v>1.0391231349178323</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0330462910717266</v>
+        <v>1.0229183862572979</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>1.2560993014123187</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4089083354586758</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3340356397109177</v>
+        <v>1.4323330026369852</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5226698995070955</v>
+        <v>1.5385310442936277</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4787030045007901</v>
+        <v>1.5843246476794182</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5430806355057487</v>
+        <v>1.5273349147352819</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.74605744642483</v>
+        <v>1.7806328414035395</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7634634671189149</v>
+        <v>1.6962839064667656</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26650,10 +26650,10 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8632340545787685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.7700723518498298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,11 +26788,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.03594803408344E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22295616467546772</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26800,43 +26800,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7445697174727984E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,11 +26889,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.21858447517202717</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26901,43 +26901,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.85058787227692978</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205674309655623</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26969,9 +26969,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27050,9 +27050,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27220,7 +27220,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264161E-2</v>
+        <v>5.3911581365566771E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.561898427516542</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7789060410954924</v>
+        <v>3.6698991360638917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8375177845384654</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0002894983320951</v>
+        <v>4.126614429858372</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5022250291261199</v>
+        <v>3.8340147687275419</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.483929551065191E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27307,33 +27307,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3591787612720196</v>
+        <v>2.2003878831094799</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0748594101108293</v>
+        <v>2.094809981361895</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0889128583471828</v>
+        <v>2.1515802440975982</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1130643485212461</v>
+        <v>1.9923178143200322</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7407175937663342</v>
+        <v>1.8650545647496437</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5224512142938278</v>
+        <v>1.6493221488183134</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27341,59 +27341,59 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2418287374831802</v>
+        <v>1.31864288619348</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1376643816156409</v>
+        <v>1.185067064182959</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1003010242587605</v>
+        <v>1.0785128851645276</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0871727552492589</v>
+        <v>1.1093599543359784</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0285638618086543</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99915686049791552</v>
+        <v>0.96918215468297808</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0634300055150128</v>
+        <v>0.99253467181401167</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.243662674665662</v>
+        <v>1.1939161676790355</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>1.4647066853778312</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4604179634730046</v>
+        <v>1.4463754830549949</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5543921890801602</v>
+        <v>1.6336979130128215</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5239694230059164</v>
+        <v>1.4937918106691654</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.590317797817149</v>
+        <v>1.606063518587616</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.74605744642483</v>
+        <v>1.6423312614887011</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27405,10 +27405,10 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8073370329414054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.9191310762161315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,27 +27442,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27470,27 +27470,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1191441256830601E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21858447517202717</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27724,9 +27724,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557372E-5</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792262E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,23 +27914,23 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-2</v>
+        <v>5.4440126280915477E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1366392708945414</v>
+        <v>1.0382762570671291</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.831571946202494</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4882209610112236</v>
+        <v>3.8152416761060257</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1573109332500042</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27938,31 +27938,31 @@
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.8708802953499215</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.956575792963962</v>
+        <v>2.9278711736147973</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5524231716511272</v>
+        <v>1.5213747082181044</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34717774780815991</v>
+        <v>0.35064952528624149</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360967E-3</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624103E-5</v>
+        <v>9.2883846118679703E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27981,85 +27981,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3591787612720196</v>
+        <v>2.223072294275557</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950571251065665</v>
+        <v>1.975106553855501</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1098019869306546</v>
+        <v>2.1515802440975982</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9721933919531629</v>
+        <v>2.0526910814206394</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8650545647496437</v>
+        <v>1.7229551693401468</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5858866815560706</v>
+        <v>1.5541689479249494</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4553656402360304</v>
+        <v>1.4696339308265798</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>1.3058405280750971</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1258137109738111</v>
+        <v>1.2206190761084481</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.111195093805877</v>
+        <v>1.1220891633529932</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537343525094177</v>
+        <v>1.0760791557058991</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0928491031716954</v>
+        <v>1.1249917238532159</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0491147035228112</v>
+        <v>0.99915686049791552</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0229183862572979</v>
+        <v>0.97227886218515425</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2934091816522886</v>
+        <v>1.2809725549056319</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4647066853778312</v>
+        <v>1.3252108105799425</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4463754830549949</v>
+        <v>1.390205561382956</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>1.5861144786532246</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5692358415110428</v>
+        <v>1.5239694230059164</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28067,22 +28067,22 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7114820514461202</v>
+        <v>1.8152082363822488</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5955145654885416</v>
+        <v>1.7466685769558774</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6625378230751178</v>
+        <v>1.5966947409731327</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8073370329414054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.8446017140329807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,23 +28116,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70044500582522395</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28148,23 +28148,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1768319672131148E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,51 +28217,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8949497119868334E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1191441256830601E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28326,39 +28326,39 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.54474050774562266</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85058787227692978</v>
+        <v>0.88427452068393697</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28366,7 +28366,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>2.0532218615708147E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28398,9 +28398,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28952,9 +28952,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -29506,9 +29506,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30060,9 +30060,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30614,9 +30614,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30709,12 +30709,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>1.4676992145115459</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>-3.1918515990629324</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31107,9 +31107,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>4.9973242013284667</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>3.7717723265065786</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2.5600710347350768</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1.3669566089796461</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>2.4822966104209137</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2.4373363720547143</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>2.1613947273457934</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>1.6964084474418935</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -32020,7 +32020,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -32046,7 +32046,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -32072,7 +32072,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -32098,7 +32098,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -32124,7 +32124,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -32150,7 +32150,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -32189,9 +32189,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>5.0443620449127291</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>3.8070438844141257</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>2.6073585908577472</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>1.3913603427302155</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>2.5056518773106111</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>2.4373363720547143</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>2.1613947273457934</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>1.7119048327018007</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -33102,7 +33102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -33128,7 +33128,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -33154,7 +33154,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -33180,7 +33180,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -33206,7 +33206,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -33232,7 +33232,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -33271,9 +33271,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>4.9502863577442051</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>3.8070438844141257</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>2.5600710347350768</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>1.3913603427302155</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>2.4355860766415183</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>2.4373363720547143</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>2.1211022312279009</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1.7119048327018007</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -34184,7 +34184,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -34210,7 +34210,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -34236,7 +34236,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -34262,7 +34262,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -34288,7 +34288,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -34314,7 +34314,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -34353,9 +34353,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>0.47990597960144832</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>-1.26022837284543</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>-0.99109418122348536</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>-0.8661856596531653</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>-0.66778448213040398</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0.35082064400149504</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>-0.78858597561800403</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>-0.94642064271979387</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -35292,7 +35292,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35318,7 +35318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -35344,7 +35344,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -35370,7 +35370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -35396,7 +35396,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
